--- a/Data/DNR Geoduck Organization.xlsx
+++ b/Data/DNR Geoduck Organization.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="0" windowWidth="22360" windowHeight="15320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25340" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Info" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Laura Spencer</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NEED TO UPDATE BASED ON ACTUAL SAMPLES EXTRACTED</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="265">
   <si>
     <t>Round</t>
   </si>
@@ -812,13 +846,16 @@
   </si>
   <si>
     <t>Block #</t>
+  </si>
+  <si>
+    <t>Sample Shorthand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -865,6 +902,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -889,7 +939,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1093,8 +1143,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,8 +1174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1225,6 +1280,7 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1326,9 +1382,33 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1555,20 +1635,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H184" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H184"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I183" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I183"/>
   <sortState ref="A3:H184">
     <sortCondition ref="H2:H183"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Box #" dataDxfId="7"/>
-    <tableColumn id="2" name="Round" dataDxfId="6"/>
-    <tableColumn id="3" name="Site" dataDxfId="5"/>
-    <tableColumn id="4" name="Spp" dataDxfId="4"/>
-    <tableColumn id="5" name="Patch" dataDxfId="3"/>
-    <tableColumn id="6" name="Exclosure" dataDxfId="2"/>
-    <tableColumn id="7" name="Rep" dataDxfId="1"/>
-    <tableColumn id="8" name="PRVial" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Box #" dataDxfId="8"/>
+    <tableColumn id="2" name="Round" dataDxfId="7"/>
+    <tableColumn id="3" name="Site" dataDxfId="6"/>
+    <tableColumn id="4" name="Spp" dataDxfId="5"/>
+    <tableColumn id="5" name="Patch" dataDxfId="4"/>
+    <tableColumn id="6" name="Exclosure" dataDxfId="3"/>
+    <tableColumn id="7" name="Rep" dataDxfId="2"/>
+    <tableColumn id="8" name="PRVial" dataDxfId="1"/>
+    <tableColumn id="9" name="Sample Shorthand" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1896,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V184"/>
+  <dimension ref="A1:W183"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1908,59 +1991,100 @@
     <col min="2" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="63.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="32.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="63.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:23" ht="26">
+      <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16">
+    <row r="2" spans="1:23" ht="16">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="2">
+        <f>COUNTIF(A:A, 1)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1980,20 +2104,24 @@
         <v>2</v>
       </c>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="2">
-        <f>COUNTIF(A:A, 1)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16">
+        <v>164</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="2">
+        <f>COUNTIF(A:A,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2013,20 +2141,24 @@
         <v>2</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N4" s="2">
-        <f>COUNTIF(A:A,2)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16">
+        <v>165</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="2">
+        <f>COUNTIF(A:A,3)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2046,20 +2178,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N5" s="2">
-        <f>COUNTIF(A:A,3)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16">
+        <v>166</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="2">
+        <f>COUNTIF(A:A,4)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2076,23 +2212,20 @@
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" s="2">
-        <f>COUNTIF(A:A,4)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="16">
+        <v>167</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2109,16 +2242,20 @@
         <v>10</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16">
+        <v>168</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2138,13 +2275,17 @@
         <v>3</v>
       </c>
       <c r="G8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16">
+        <v>169</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -2164,13 +2305,42 @@
         <v>3</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16">
+        <v>170</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="O9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -2190,38 +2360,41 @@
         <v>3</v>
       </c>
       <c r="G10" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="N10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="O10" s="1">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>9</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1">
         <v>1</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="16">
+        <v>7</v>
+      </c>
+      <c r="V10" s="1">
+        <v>9</v>
+      </c>
+      <c r="W10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2241,39 +2414,52 @@
         <v>3</v>
       </c>
       <c r="G11" s="5">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="1">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+      <c r="J11" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="Q11" s="1">
-        <v>10</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="1">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="R11" s="1">
+        <v>13</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="V11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="16">
+        <v>12</v>
+      </c>
+      <c r="W11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -2285,52 +2471,47 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1">
         <v>11</v>
       </c>
-      <c r="P12" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>13</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="1">
-        <v>12</v>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="V12" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="16">
+        <v>15</v>
+      </c>
+      <c r="W12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2350,37 +2531,41 @@
         <v>4</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2</v>
+        <v>174</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="Q13" s="1">
-        <v>11</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U13" s="1">
         <v>15</v>
+      </c>
+      <c r="R13" s="1">
+        <v>14</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="V13" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="16">
+      <c r="W13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2400,37 +2585,41 @@
         <v>4</v>
       </c>
       <c r="G14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="1">
-        <v>15</v>
+        <v>175</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q14" s="1">
         <v>14</v>
       </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" s="1">
-        <v>14</v>
+      <c r="R14" s="1">
+        <v>12</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="V14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="16">
+        <v>6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2450,37 +2639,41 @@
         <v>4</v>
       </c>
       <c r="G15" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="1">
-        <v>14</v>
+        <v>176</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="Q15" s="1">
-        <v>12</v>
-      </c>
-      <c r="S15" s="1">
-        <v>2</v>
-      </c>
-      <c r="T15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1">
         <v>7</v>
       </c>
-      <c r="U15" s="1">
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="1">
+        <v>9</v>
+      </c>
+      <c r="W15" s="1">
         <v>6</v>
       </c>
-      <c r="V15" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16">
+    </row>
+    <row r="16" spans="1:23" ht="16">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2497,40 +2690,44 @@
         <v>9</v>
       </c>
       <c r="F16" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="1">
+        <v>177</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>9</v>
+      </c>
+      <c r="R16" s="1">
         <v>6</v>
       </c>
-      <c r="Q16" s="1">
-        <v>7</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U16" s="1">
-        <v>9</v>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="V16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="16">
+        <v>10</v>
+      </c>
+      <c r="W16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2550,37 +2747,41 @@
         <v>5</v>
       </c>
       <c r="G17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="1">
-        <v>9</v>
+        <v>178</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="1">
+        <v>10</v>
+      </c>
+      <c r="W17" s="1">
         <v>6</v>
       </c>
-      <c r="S17" s="1">
-        <v>2</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U17" s="1">
-        <v>10</v>
-      </c>
-      <c r="V17" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="16">
+    </row>
+    <row r="18" spans="1:23" ht="16">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2600,37 +2801,29 @@
         <v>5</v>
       </c>
       <c r="G18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="Q18" s="1">
-        <v>3</v>
-      </c>
-      <c r="S18" s="1">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="1">
-        <v>10</v>
-      </c>
-      <c r="V18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="16">
+        <v>10</v>
+      </c>
+      <c r="R18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -2650,25 +2843,38 @@
         <v>5</v>
       </c>
       <c r="G19" s="5">
-        <v>3</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="1">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="J19" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Q19" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="16">
+        <v>10</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -2688,39 +2894,23 @@
         <v>5</v>
       </c>
       <c r="G20" s="5">
-        <v>4</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="16">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" ht="16">
       <c r="A21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -2732,19 +2922,22 @@
         <v>9</v>
       </c>
       <c r="F21" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:22" ht="16">
+        <v>182</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16">
       <c r="A22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -2756,19 +2949,23 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16">
+        <v>183</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2785,16 +2982,20 @@
         <v>10</v>
       </c>
       <c r="F23" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16">
+        <v>184</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -2814,13 +3015,17 @@
         <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="16">
+        <v>185</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -2840,13 +3045,17 @@
         <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="16">
+        <v>186</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -2854,25 +3063,29 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="16">
+        <v>187</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -2889,16 +3102,20 @@
         <v>9</v>
       </c>
       <c r="F27" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="16">
+        <v>188</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -2912,27 +3129,31 @@
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="16">
+        <v>189</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16">
       <c r="A29" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>8</v>
@@ -2941,16 +3162,20 @@
         <v>10</v>
       </c>
       <c r="F29" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="16">
+        <v>190</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -2970,13 +3195,18 @@
         <v>3</v>
       </c>
       <c r="G30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="16">
+        <v>191</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" ht="16">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -2996,14 +3226,17 @@
         <v>3</v>
       </c>
       <c r="G31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" ht="16">
+        <v>192</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -3023,13 +3256,17 @@
         <v>3</v>
       </c>
       <c r="G32" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16">
+        <v>193</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -3049,21 +3286,25 @@
         <v>3</v>
       </c>
       <c r="G33" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16">
+        <v>194</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16">
       <c r="A34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>8</v>
@@ -3072,16 +3313,20 @@
         <v>10</v>
       </c>
       <c r="F34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16">
+        <v>195</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -3101,13 +3346,17 @@
         <v>1</v>
       </c>
       <c r="G35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16">
+        <v>196</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="4">
         <v>4</v>
       </c>
@@ -3127,18 +3376,22 @@
         <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16">
+        <v>197</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>11</v>
@@ -3147,19 +3400,23 @@
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G37" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16">
+        <v>198</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -3179,40 +3436,48 @@
         <v>6</v>
       </c>
       <c r="G38" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16">
+        <v>199</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="16">
       <c r="A39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="16">
+        <v>67</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -3229,16 +3494,20 @@
         <v>10</v>
       </c>
       <c r="F40" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16">
+        <v>68</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -3258,13 +3527,17 @@
         <v>3</v>
       </c>
       <c r="G41" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16">
+        <v>69</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -3284,39 +3557,47 @@
         <v>3</v>
       </c>
       <c r="G42" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16">
+        <v>70</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16">
       <c r="A43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16">
+        <v>72</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -3336,13 +3617,17 @@
         <v>4</v>
       </c>
       <c r="G44" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16">
+        <v>73</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -3362,13 +3647,17 @@
         <v>4</v>
       </c>
       <c r="G45" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16">
+        <v>74</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -3388,13 +3677,17 @@
         <v>4</v>
       </c>
       <c r="G46" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16">
+        <v>75</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -3414,15 +3707,19 @@
         <v>4</v>
       </c>
       <c r="G47" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16">
+        <v>76</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16">
       <c r="A48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -3434,19 +3731,23 @@
         <v>8</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16">
+        <v>96</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -3466,13 +3767,18 @@
         <v>3</v>
       </c>
       <c r="G49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16">
+        <v>97</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="16">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -3492,14 +3798,17 @@
         <v>3</v>
       </c>
       <c r="G50" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" ht="16">
+        <v>98</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -3519,13 +3828,17 @@
         <v>3</v>
       </c>
       <c r="G51" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16">
+        <v>99</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -3545,15 +3858,19 @@
         <v>3</v>
       </c>
       <c r="G52" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16">
+        <v>100</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16">
       <c r="A53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -3565,19 +3882,23 @@
         <v>8</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G53" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16">
+        <v>82</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -3597,13 +3918,17 @@
         <v>6</v>
       </c>
       <c r="G54" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16">
+        <v>83</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -3623,13 +3948,17 @@
         <v>6</v>
       </c>
       <c r="G55" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16">
+        <v>84</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -3649,13 +3978,17 @@
         <v>6</v>
       </c>
       <c r="G56" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16">
+        <v>85</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -3675,13 +4008,17 @@
         <v>6</v>
       </c>
       <c r="G57" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16">
+        <v>86</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -3698,16 +4035,29 @@
         <v>9</v>
       </c>
       <c r="F58" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G58" s="5">
-        <v>5</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16">
+        <v>1</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+      <c r="J58" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -3727,22 +4077,17 @@
         <v>5</v>
       </c>
       <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I59" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -3762,13 +4107,17 @@
         <v>5</v>
       </c>
       <c r="G60" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16">
+        <v>79</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -3788,13 +4137,17 @@
         <v>5</v>
       </c>
       <c r="G61" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16">
+        <v>80</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -3814,15 +4167,19 @@
         <v>5</v>
       </c>
       <c r="G62" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16">
+        <v>81</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16">
       <c r="A63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -3834,19 +4191,24 @@
         <v>8</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G63" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16">
+        <v>91</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" ht="16">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -3866,14 +4228,17 @@
         <v>2</v>
       </c>
       <c r="G64" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:12" ht="16">
+        <v>92</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="16">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -3893,18 +4258,22 @@
         <v>2</v>
       </c>
       <c r="G65" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="16">
+        <v>93</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="16">
       <c r="A66" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B66" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>71</v>
@@ -3916,21 +4285,25 @@
         <v>10</v>
       </c>
       <c r="F66" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="16">
+      <c r="I66" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="16">
       <c r="A67" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>71</v>
@@ -3942,16 +4315,20 @@
         <v>10</v>
       </c>
       <c r="F67" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="16">
+        <v>94</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="16">
       <c r="A68" s="4">
         <v>2</v>
       </c>
@@ -3971,13 +4348,18 @@
         <v>2</v>
       </c>
       <c r="G68" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="16">
+        <v>95</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" ht="16">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -3994,17 +4376,20 @@
         <v>10</v>
       </c>
       <c r="F69" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:12" ht="16">
+        <v>87</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -4024,13 +4409,17 @@
         <v>1</v>
       </c>
       <c r="G70" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="16">
+        <v>88</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -4050,13 +4439,29 @@
         <v>1</v>
       </c>
       <c r="G71" s="5">
-        <v>2</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="16">
+        <v>3</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+      <c r="J71" s="6">
+        <v>42758</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -4076,30 +4481,22 @@
         <v>1</v>
       </c>
       <c r="G72" s="5">
-        <v>3</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" s="6">
-        <v>42758</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="16">
+        <v>4</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16">
       <c r="A73" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B73" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>71</v>
@@ -4111,16 +4508,20 @@
         <v>10</v>
       </c>
       <c r="F73" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="16">
+        <v>153</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="16">
       <c r="A74" s="4">
         <v>4</v>
       </c>
@@ -4140,13 +4541,17 @@
         <v>3</v>
       </c>
       <c r="G74" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="16">
+        <v>154</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="16">
       <c r="A75" s="4">
         <v>4</v>
       </c>
@@ -4166,13 +4571,17 @@
         <v>3</v>
       </c>
       <c r="G75" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="16">
+        <v>155</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16">
       <c r="A76" s="4">
         <v>4</v>
       </c>
@@ -4180,34 +4589,38 @@
         <v>2</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2</v>
+      </c>
+      <c r="G76" s="5">
+        <v>2</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="16">
+      <c r="A77" s="4">
+        <v>4</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="5">
-        <v>3</v>
-      </c>
-      <c r="G76" s="5">
-        <v>4</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="16">
-      <c r="A77" s="4">
-        <v>4</v>
-      </c>
-      <c r="B77" s="5">
-        <v>2</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D77" s="5" t="s">
         <v>8</v>
       </c>
@@ -4215,16 +4628,20 @@
         <v>10</v>
       </c>
       <c r="F77" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="16">
+      <c r="I77" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16">
       <c r="A78" s="4">
         <v>4</v>
       </c>
@@ -4244,13 +4661,17 @@
         <v>1</v>
       </c>
       <c r="G78" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="16">
+        <v>149</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16">
       <c r="A79" s="4">
         <v>4</v>
       </c>
@@ -4267,16 +4688,20 @@
         <v>10</v>
       </c>
       <c r="F79" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="16">
+        <v>150</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16">
       <c r="A80" s="4">
         <v>4</v>
       </c>
@@ -4296,13 +4721,17 @@
         <v>2</v>
       </c>
       <c r="G80" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="16">
+        <v>151</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16">
       <c r="A81" s="4">
         <v>4</v>
       </c>
@@ -4322,15 +4751,19 @@
         <v>2</v>
       </c>
       <c r="G81" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16">
+        <v>152</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-E</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16">
       <c r="A82" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="5">
         <v>2</v>
@@ -4342,19 +4775,23 @@
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G82" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16">
+        <v>142</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -4374,13 +4811,17 @@
         <v>5</v>
       </c>
       <c r="G83" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16">
+        <v>143</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -4400,13 +4841,17 @@
         <v>5</v>
       </c>
       <c r="G84" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16">
+        <v>144</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -4426,13 +4871,17 @@
         <v>5</v>
       </c>
       <c r="G85" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="16">
+        <v>145</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -4449,16 +4898,20 @@
         <v>9</v>
       </c>
       <c r="F86" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16">
+        <v>139</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -4478,13 +4931,17 @@
         <v>4</v>
       </c>
       <c r="G87" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16">
+        <v>140</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -4504,13 +4961,18 @@
         <v>4</v>
       </c>
       <c r="G88" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="16">
+        <v>141</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="1:10" ht="16">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -4527,17 +4989,20 @@
         <v>9</v>
       </c>
       <c r="F89" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G89" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" ht="16">
+        <v>146</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -4557,13 +5022,17 @@
         <v>6</v>
       </c>
       <c r="G90" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16">
+        <v>147</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -4583,39 +5052,47 @@
         <v>6</v>
       </c>
       <c r="G91" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16">
+        <v>148</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>WB-B</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16">
       <c r="A92" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" s="5">
         <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G92" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16">
+        <v>138</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -4632,16 +5109,20 @@
         <v>10</v>
       </c>
       <c r="F93" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G93" s="5">
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="16">
+        <v>137</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16">
       <c r="A94" s="4">
         <v>4</v>
       </c>
@@ -4649,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>8</v>
@@ -4658,18 +5139,22 @@
         <v>10</v>
       </c>
       <c r="F94" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16">
+        <v>120</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16">
       <c r="A95" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" s="5">
         <v>2</v>
@@ -4681,19 +5166,23 @@
         <v>8</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G95" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16">
+        <v>114</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -4713,13 +5202,17 @@
         <v>6</v>
       </c>
       <c r="G96" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="16">
+        <v>115</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -4739,13 +5232,18 @@
         <v>6</v>
       </c>
       <c r="G97" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16">
+        <v>116</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="1:10" ht="16">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -4765,14 +5263,17 @@
         <v>6</v>
       </c>
       <c r="G98" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9" ht="16">
+        <v>117</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -4789,16 +5290,20 @@
         <v>9</v>
       </c>
       <c r="F99" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G99" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16">
+        <v>109</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -4818,13 +5323,17 @@
         <v>4</v>
       </c>
       <c r="G100" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16">
+        <v>110</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -4844,13 +5353,17 @@
         <v>4</v>
       </c>
       <c r="G101" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16">
+        <v>111</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -4870,13 +5383,17 @@
         <v>4</v>
       </c>
       <c r="G102" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16">
+        <v>112</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -4896,39 +5413,47 @@
         <v>4</v>
       </c>
       <c r="G103" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="16">
+        <v>113</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16">
       <c r="A104" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B104" s="5">
         <v>2</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F104" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G104" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="16">
+        <v>133</v>
+      </c>
+      <c r="I104" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16">
       <c r="A105" s="4">
         <v>4</v>
       </c>
@@ -4948,13 +5473,17 @@
         <v>3</v>
       </c>
       <c r="G105" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16">
+        <v>134</v>
+      </c>
+      <c r="I105" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16">
       <c r="A106" s="4">
         <v>4</v>
       </c>
@@ -4974,13 +5503,17 @@
         <v>3</v>
       </c>
       <c r="G106" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="16">
+        <v>135</v>
+      </c>
+      <c r="I106" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16">
       <c r="A107" s="4">
         <v>4</v>
       </c>
@@ -5000,13 +5533,17 @@
         <v>3</v>
       </c>
       <c r="G107" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16">
+        <v>136</v>
+      </c>
+      <c r="I107" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16">
       <c r="A108" s="4">
         <v>4</v>
       </c>
@@ -5023,16 +5560,20 @@
         <v>10</v>
       </c>
       <c r="F108" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16">
+        <v>131</v>
+      </c>
+      <c r="I108" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16">
       <c r="A109" s="4">
         <v>4</v>
       </c>
@@ -5052,15 +5593,19 @@
         <v>2</v>
       </c>
       <c r="G109" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16">
+        <v>132</v>
+      </c>
+      <c r="I109" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16">
       <c r="A110" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" s="5">
         <v>2</v>
@@ -5072,19 +5617,23 @@
         <v>8</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G110" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="16">
+        <v>127</v>
+      </c>
+      <c r="I110" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -5104,13 +5653,17 @@
         <v>6</v>
       </c>
       <c r="G111" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="16">
+        <v>128</v>
+      </c>
+      <c r="I111" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -5130,11 +5683,16 @@
         <v>6</v>
       </c>
       <c r="G112" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I112" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+      <c r="J112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="16">
       <c r="A113" s="4">
@@ -5156,12 +5714,15 @@
         <v>6</v>
       </c>
       <c r="G113" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I113" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="16">
       <c r="A114" s="4">
@@ -5180,13 +5741,17 @@
         <v>9</v>
       </c>
       <c r="F114" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G114" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="I114" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16">
@@ -5206,13 +5771,17 @@
         <v>9</v>
       </c>
       <c r="F115" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G115" s="5">
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16">
@@ -5235,10 +5804,14 @@
         <v>4</v>
       </c>
       <c r="G116" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="I116" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16">
@@ -5261,10 +5834,14 @@
         <v>4</v>
       </c>
       <c r="G117" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16">
@@ -5287,10 +5864,14 @@
         <v>4</v>
       </c>
       <c r="G118" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="I118" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16">
@@ -5313,21 +5894,25 @@
         <v>4</v>
       </c>
       <c r="G119" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16">
       <c r="A120" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B120" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>8</v>
@@ -5336,13 +5921,17 @@
         <v>9</v>
       </c>
       <c r="F120" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G120" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>125</v>
+        <v>21</v>
+      </c>
+      <c r="I120" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16">
@@ -5365,10 +5954,14 @@
         <v>6</v>
       </c>
       <c r="G121" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16">
@@ -5391,10 +5984,14 @@
         <v>6</v>
       </c>
       <c r="G122" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I122" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16">
@@ -5414,13 +6011,17 @@
         <v>9</v>
       </c>
       <c r="F123" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G123" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16">
@@ -5443,10 +6044,14 @@
         <v>4</v>
       </c>
       <c r="G124" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I124" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16">
@@ -5469,15 +6074,19 @@
         <v>4</v>
       </c>
       <c r="G125" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16">
       <c r="A126" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126" s="5">
         <v>1</v>
@@ -5489,16 +6098,20 @@
         <v>8</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F126" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G126" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I126" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16">
@@ -5521,10 +6134,14 @@
         <v>1</v>
       </c>
       <c r="G127" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I127" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16">
@@ -5544,16 +6161,20 @@
         <v>10</v>
       </c>
       <c r="F128" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="16">
+        <v>33</v>
+      </c>
+      <c r="I128" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="16">
       <c r="A129" s="4">
         <v>2</v>
       </c>
@@ -5570,16 +6191,20 @@
         <v>10</v>
       </c>
       <c r="F129" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G129" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="16">
+        <v>24</v>
+      </c>
+      <c r="I129" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="16">
       <c r="A130" s="4">
         <v>2</v>
       </c>
@@ -5599,13 +6224,26 @@
         <v>1</v>
       </c>
       <c r="G130" s="5">
-        <v>3</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="16">
+        <v>2</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I130" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+      <c r="J130" s="6">
+        <v>42758</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="16">
       <c r="A131" s="4">
         <v>2</v>
       </c>
@@ -5625,22 +6263,17 @@
         <v>1</v>
       </c>
       <c r="G131" s="5">
-        <v>2</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I131" s="6">
-        <v>42758</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="16">
+        <v>1</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="16">
       <c r="A132" s="4">
         <v>2</v>
       </c>
@@ -5657,16 +6290,20 @@
         <v>10</v>
       </c>
       <c r="F132" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="16">
+        <v>31</v>
+      </c>
+      <c r="I132" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="16">
       <c r="A133" s="4">
         <v>2</v>
       </c>
@@ -5686,13 +6323,17 @@
         <v>2</v>
       </c>
       <c r="G133" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="16">
+        <v>30</v>
+      </c>
+      <c r="I133" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="16">
       <c r="A134" s="4">
         <v>2</v>
       </c>
@@ -5712,13 +6353,17 @@
         <v>2</v>
       </c>
       <c r="G134" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="16">
+        <v>29</v>
+      </c>
+      <c r="I134" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="16">
       <c r="A135" s="4">
         <v>2</v>
       </c>
@@ -5738,13 +6383,17 @@
         <v>2</v>
       </c>
       <c r="G135" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="16">
+        <v>28</v>
+      </c>
+      <c r="I135" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="16">
       <c r="A136" s="4">
         <v>2</v>
       </c>
@@ -5764,13 +6413,17 @@
         <v>2</v>
       </c>
       <c r="G136" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="16">
+        <v>27</v>
+      </c>
+      <c r="I136" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="16">
       <c r="A137" s="4">
         <v>2</v>
       </c>
@@ -5787,16 +6440,20 @@
         <v>10</v>
       </c>
       <c r="F137" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="16">
+        <v>34</v>
+      </c>
+      <c r="I137" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="16">
       <c r="A138" s="4">
         <v>2</v>
       </c>
@@ -5816,15 +6473,19 @@
         <v>3</v>
       </c>
       <c r="G138" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="16">
+        <v>32</v>
+      </c>
+      <c r="I138" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="16">
       <c r="A139" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="5">
         <v>1</v>
@@ -5836,19 +6497,23 @@
         <v>8</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F139" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G139" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="16">
+        <v>18</v>
+      </c>
+      <c r="I139" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="16">
       <c r="A140" s="4">
         <v>1</v>
       </c>
@@ -5868,13 +6533,26 @@
         <v>5</v>
       </c>
       <c r="G140" s="5">
-        <v>4</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="16">
+        <v>3</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+      <c r="J140" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="16">
       <c r="A141" s="4">
         <v>1</v>
       </c>
@@ -5894,22 +6572,18 @@
         <v>5</v>
       </c>
       <c r="G141" s="5">
-        <v>3</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="16">
+        <v>2</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:12" ht="16">
       <c r="A142" s="4">
         <v>1</v>
       </c>
@@ -5929,14 +6603,17 @@
         <v>5</v>
       </c>
       <c r="G142" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:11" ht="16">
+        <v>15</v>
+      </c>
+      <c r="I142" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-B</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="16">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -5944,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>8</v>
@@ -5953,16 +6630,20 @@
         <v>9</v>
       </c>
       <c r="F143" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G143" s="5">
         <v>1</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="16">
+        <v>36</v>
+      </c>
+      <c r="I143" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="16">
       <c r="A144" s="4">
         <v>1</v>
       </c>
@@ -5982,13 +6663,17 @@
         <v>4</v>
       </c>
       <c r="G144" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="16">
+        <v>37</v>
+      </c>
+      <c r="I144" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="16">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -6008,13 +6693,17 @@
         <v>4</v>
       </c>
       <c r="G145" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="16">
+        <v>38</v>
+      </c>
+      <c r="I145" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="16">
       <c r="A146" s="4">
         <v>1</v>
       </c>
@@ -6034,13 +6723,17 @@
         <v>4</v>
       </c>
       <c r="G146" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="16">
+        <v>39</v>
+      </c>
+      <c r="I146" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="16">
       <c r="A147" s="4">
         <v>1</v>
       </c>
@@ -6060,13 +6753,17 @@
         <v>4</v>
       </c>
       <c r="G147" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="16">
+        <v>40</v>
+      </c>
+      <c r="I147" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="16">
       <c r="A148" s="4">
         <v>1</v>
       </c>
@@ -6083,16 +6780,20 @@
         <v>9</v>
       </c>
       <c r="F148" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G148" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="16">
+        <v>45</v>
+      </c>
+      <c r="I148" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="16">
       <c r="A149" s="4">
         <v>1</v>
       </c>
@@ -6112,13 +6813,17 @@
         <v>6</v>
       </c>
       <c r="G149" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="16">
+        <v>46</v>
+      </c>
+      <c r="I149" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="16">
       <c r="A150" s="4">
         <v>1</v>
       </c>
@@ -6138,13 +6843,26 @@
         <v>6</v>
       </c>
       <c r="G150" s="5">
-        <v>2</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="16">
+        <v>3</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I150" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+      <c r="J150" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="16">
       <c r="A151" s="4">
         <v>1</v>
       </c>
@@ -6164,22 +6882,18 @@
         <v>6</v>
       </c>
       <c r="G151" s="5">
-        <v>3</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I151" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="16">
+        <v>4</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I151" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="1:12" ht="16">
       <c r="A152" s="4">
         <v>1</v>
       </c>
@@ -6199,16 +6913,19 @@
         <v>6</v>
       </c>
       <c r="G152" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I152" s="6"/>
-    </row>
-    <row r="153" spans="1:11" ht="16">
+        <v>49</v>
+      </c>
+      <c r="I152" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="16">
       <c r="A153" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" s="5">
         <v>1</v>
@@ -6220,19 +6937,23 @@
         <v>8</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F153" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G153" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="16">
+        <v>53</v>
+      </c>
+      <c r="I153" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="16">
       <c r="A154" s="4">
         <v>2</v>
       </c>
@@ -6252,13 +6973,17 @@
         <v>2</v>
       </c>
       <c r="G154" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="16">
+        <v>54</v>
+      </c>
+      <c r="I154" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="16">
       <c r="A155" s="4">
         <v>2</v>
       </c>
@@ -6278,13 +7003,17 @@
         <v>2</v>
       </c>
       <c r="G155" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="16">
+        <v>55</v>
+      </c>
+      <c r="I155" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="16">
       <c r="A156" s="4">
         <v>2</v>
       </c>
@@ -6304,13 +7033,17 @@
         <v>2</v>
       </c>
       <c r="G156" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="16">
+        <v>56</v>
+      </c>
+      <c r="I156" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="16">
       <c r="A157" s="4">
         <v>2</v>
       </c>
@@ -6327,16 +7060,20 @@
         <v>10</v>
       </c>
       <c r="F157" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="16">
+        <v>50</v>
+      </c>
+      <c r="I157" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="16">
       <c r="A158" s="4">
         <v>2</v>
       </c>
@@ -6356,13 +7093,17 @@
         <v>1</v>
       </c>
       <c r="G158" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="16">
+        <v>51</v>
+      </c>
+      <c r="I158" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="16">
       <c r="A159" s="4">
         <v>2</v>
       </c>
@@ -6382,15 +7123,28 @@
         <v>1</v>
       </c>
       <c r="G159" s="5">
-        <v>2</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="16">
+        <v>3</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I159" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-E</v>
+      </c>
+      <c r="J159" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="16">
       <c r="A160" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" s="5">
         <v>1</v>
@@ -6402,28 +7156,23 @@
         <v>8</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F160" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G160" s="5">
-        <v>3</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I160" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="16">
+        <v>1</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="16">
       <c r="A161" s="4">
         <v>1</v>
       </c>
@@ -6443,13 +7192,17 @@
         <v>5</v>
       </c>
       <c r="G161" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="16">
+        <v>42</v>
+      </c>
+      <c r="I161" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="16">
       <c r="A162" s="4">
         <v>1</v>
       </c>
@@ -6469,13 +7222,17 @@
         <v>5</v>
       </c>
       <c r="G162" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="16">
+        <v>43</v>
+      </c>
+      <c r="I162" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="16">
       <c r="A163" s="4">
         <v>1</v>
       </c>
@@ -6495,21 +7252,25 @@
         <v>5</v>
       </c>
       <c r="G163" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="16">
+        <v>44</v>
+      </c>
+      <c r="I163" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>PG-B</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="16">
       <c r="A164" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B164" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>8</v>
@@ -6518,16 +7279,20 @@
         <v>9</v>
       </c>
       <c r="F164" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G164" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="16">
+        <v>103</v>
+      </c>
+      <c r="I164" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="16">
       <c r="A165" s="4">
         <v>3</v>
       </c>
@@ -6547,13 +7312,17 @@
         <v>6</v>
       </c>
       <c r="G165" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="16">
+        <v>104</v>
+      </c>
+      <c r="I165" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="16">
       <c r="A166" s="4">
         <v>3</v>
       </c>
@@ -6573,13 +7342,17 @@
         <v>6</v>
       </c>
       <c r="G166" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="16">
+        <v>105</v>
+      </c>
+      <c r="I166" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="16">
       <c r="A167" s="4">
         <v>3</v>
       </c>
@@ -6596,16 +7369,20 @@
         <v>9</v>
       </c>
       <c r="F167" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G167" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="16">
+        <v>101</v>
+      </c>
+      <c r="I167" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="16">
       <c r="A168" s="4">
         <v>3</v>
       </c>
@@ -6625,15 +7402,19 @@
         <v>5</v>
       </c>
       <c r="G168" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="16">
+        <v>102</v>
+      </c>
+      <c r="I168" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-B</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="16">
       <c r="A169" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169" s="5">
         <v>2</v>
@@ -6645,19 +7426,23 @@
         <v>8</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F169" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G169" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="16">
+        <v>106</v>
+      </c>
+      <c r="I169" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="16">
       <c r="A170" s="4">
         <v>4</v>
       </c>
@@ -6677,13 +7462,17 @@
         <v>2</v>
       </c>
       <c r="G170" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="16">
+        <v>107</v>
+      </c>
+      <c r="I170" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="16">
       <c r="A171" s="4">
         <v>4</v>
       </c>
@@ -6703,13 +7492,17 @@
         <v>2</v>
       </c>
       <c r="G171" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="16">
+        <v>108</v>
+      </c>
+      <c r="I171" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>CI-E</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="16">
       <c r="A172" s="4">
         <v>4</v>
       </c>
@@ -6717,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>8</v>
@@ -6729,39 +7522,47 @@
         <v>2</v>
       </c>
       <c r="G172" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="16">
+        <v>118</v>
+      </c>
+      <c r="I172" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>FB-E</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="16">
       <c r="A173" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B173" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F173" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G173" s="5">
         <v>1</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="16">
+        <v>58</v>
+      </c>
+      <c r="I173" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-B</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="16">
       <c r="A174" s="4">
         <v>1</v>
       </c>
@@ -6781,15 +7582,28 @@
         <v>6</v>
       </c>
       <c r="G174" s="5">
-        <v>1</v>
-      </c>
-      <c r="H174" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="16">
+        <v>2</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I174" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-B</v>
+      </c>
+      <c r="J174" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="16">
       <c r="A175" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" s="5">
         <v>1</v>
@@ -6801,28 +7615,23 @@
         <v>8</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F175" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G175" s="5">
-        <v>2</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I175" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K175" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="16">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I175" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="16">
       <c r="A176" s="4">
         <v>2</v>
       </c>
@@ -6842,13 +7651,17 @@
         <v>1</v>
       </c>
       <c r="G176" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="16">
+        <v>61</v>
+      </c>
+      <c r="I176" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="16">
       <c r="A177" s="4">
         <v>2</v>
       </c>
@@ -6868,13 +7681,17 @@
         <v>1</v>
       </c>
       <c r="G177" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="16">
+        <v>62</v>
+      </c>
+      <c r="I177" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="16">
       <c r="A178" s="4">
         <v>2</v>
       </c>
@@ -6894,13 +7711,17 @@
         <v>1</v>
       </c>
       <c r="G178" s="5">
-        <v>3</v>
-      </c>
-      <c r="H178" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="16">
+        <v>4</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I178" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="16">
       <c r="A179" s="4">
         <v>2</v>
       </c>
@@ -6920,13 +7741,26 @@
         <v>1</v>
       </c>
       <c r="G179" s="5">
-        <v>4</v>
-      </c>
-      <c r="H179" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="16">
+        <v>5</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I179" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+      <c r="J179" s="7">
+        <v>42758</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="16">
       <c r="A180" s="4">
         <v>2</v>
       </c>
@@ -6943,25 +7777,20 @@
         <v>10</v>
       </c>
       <c r="F180" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I180" s="7">
-        <v>42758</v>
-      </c>
-      <c r="J180" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K180" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="16">
+        <v>65</v>
+      </c>
+      <c r="I180" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="16">
       <c r="A181" s="4">
         <v>2</v>
       </c>
@@ -6981,39 +7810,42 @@
         <v>2</v>
       </c>
       <c r="G181" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="16">
-      <c r="A182" s="4">
-        <v>2</v>
-      </c>
-      <c r="B182" s="5">
-        <v>1</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="5">
-        <v>2</v>
-      </c>
-      <c r="G182" s="5">
-        <v>2</v>
-      </c>
-      <c r="H182" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="16">
+      <c r="I181" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>SK-E</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="16">
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I182" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>-</v>
+      </c>
+      <c r="J182" s="6">
+        <v>42758</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="16">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7021,28 +7853,11 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I183" s="6">
-        <v>42758</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="16">
-      <c r="A184" s="4"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Site]],"-",Table1[[#This Row],[Patch]])</f>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:H182">
@@ -7062,11 +7877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7193,7 +8008,10 @@
       <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1" t="str">
+        <f>CONCATENATE(N2,"-",O2)</f>
+        <v>CI-E</v>
+      </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -7227,7 +8045,7 @@
         <v>163</v>
       </c>
       <c r="M3" s="1">
-        <f>1+M2</f>
+        <f t="shared" ref="M3:M11" si="0">1+M2</f>
         <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -7248,7 +8066,10 @@
       <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1" t="str">
+        <f>CONCATENATE(N3,"-",O3)</f>
+        <v>CI-B</v>
+      </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -7281,7 +8102,7 @@
         <v>164</v>
       </c>
       <c r="M4" s="1">
-        <f>1+M3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7302,7 +8123,10 @@
       <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1" t="str">
+        <f t="shared" ref="T4:T56" si="1">CONCATENATE(N4,"-",O4)</f>
+        <v>FB-E</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -7336,7 +8160,7 @@
         <v>165</v>
       </c>
       <c r="M5" s="1">
-        <f>1+M4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7357,7 +8181,10 @@
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -7391,7 +8218,7 @@
         <v>166</v>
       </c>
       <c r="M6" s="1">
-        <f>1+M5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7412,7 +8239,10 @@
       <c r="S6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -7446,7 +8276,7 @@
         <v>168</v>
       </c>
       <c r="M7" s="1">
-        <f>1+M6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7467,7 +8297,10 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:26">
@@ -7496,7 +8329,7 @@
         <v>169</v>
       </c>
       <c r="M8" s="1">
-        <f>1+M7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7517,7 +8350,10 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1"/>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:26">
@@ -7546,7 +8382,7 @@
         <v>170</v>
       </c>
       <c r="M9" s="1">
-        <f>1+M8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7567,7 +8403,10 @@
       <c r="S9" s="1">
         <v>2</v>
       </c>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-E</v>
+      </c>
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:26">
@@ -7596,7 +8435,7 @@
         <v>171</v>
       </c>
       <c r="M10" s="10">
-        <f>1+M9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N10" s="10" t="s">
@@ -7617,6 +8456,10 @@
       <c r="S10" s="1">
         <v>2</v>
       </c>
+      <c r="T10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-E</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11">
@@ -7653,7 +8496,7 @@
         <v>219</v>
       </c>
       <c r="M11" s="10">
-        <f>1+M10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N11" s="10" t="s">
@@ -7674,7 +8517,10 @@
       <c r="S11" s="1">
         <v>2</v>
       </c>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-E</v>
+      </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12">
@@ -7702,7 +8548,7 @@
         <v>173</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" ref="M12:M56" si="0">1+M11</f>
+        <f t="shared" ref="M12:M56" si="2">1+M11</f>
         <v>11</v>
       </c>
       <c r="N12" s="10" t="s">
@@ -7723,7 +8569,10 @@
       <c r="S12" s="1">
         <v>2</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-B</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13">
@@ -7751,7 +8600,7 @@
         <v>174</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N13" s="10" t="s">
@@ -7772,7 +8621,10 @@
       <c r="S13" s="1">
         <v>2</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-B</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14">
@@ -7800,7 +8652,7 @@
         <v>175</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="N14" s="10" t="s">
@@ -7821,10 +8673,14 @@
       <c r="S14" s="1">
         <v>2</v>
       </c>
+      <c r="T14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-B</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="M15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -7845,7 +8701,10 @@
       <c r="S15" s="10">
         <v>2</v>
       </c>
-      <c r="T15" s="10"/>
+      <c r="T15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16">
@@ -7873,7 +8732,7 @@
         <v>176</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="N16" s="10" t="s">
@@ -7894,7 +8753,10 @@
       <c r="S16" s="10">
         <v>2</v>
       </c>
-      <c r="T16" s="10"/>
+      <c r="T16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
@@ -7922,7 +8784,7 @@
         <v>177</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -7943,7 +8805,10 @@
       <c r="S17" s="10">
         <v>2</v>
       </c>
-      <c r="T17" s="10"/>
+      <c r="T17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
@@ -7971,7 +8836,7 @@
         <v>178</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="N18" s="10" t="s">
@@ -7992,7 +8857,10 @@
       <c r="S18" s="10">
         <v>2</v>
       </c>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-E</v>
+      </c>
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21">
@@ -8021,7 +8889,7 @@
         <v>179</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -8042,7 +8910,10 @@
       <c r="S19" s="10">
         <v>2</v>
       </c>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-E</v>
+      </c>
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21">
@@ -8080,7 +8951,7 @@
         <v>220</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="N20" s="10" t="s">
@@ -8101,7 +8972,10 @@
       <c r="S20" s="10">
         <v>2</v>
       </c>
-      <c r="T20" s="1"/>
+      <c r="T20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-E</v>
+      </c>
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21">
@@ -8130,7 +9004,7 @@
         <v>181</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -8151,7 +9025,10 @@
       <c r="S21" s="1">
         <v>2</v>
       </c>
-      <c r="T21" s="1"/>
+      <c r="T21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21">
@@ -8180,7 +9057,7 @@
         <v>26</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="N22" s="10" t="s">
@@ -8201,6 +9078,10 @@
       <c r="S22" s="10">
         <v>2</v>
       </c>
+      <c r="T22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
@@ -8228,7 +9109,7 @@
         <v>25</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
@@ -8249,6 +9130,10 @@
       <c r="S23" s="10">
         <v>2</v>
       </c>
+      <c r="T23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21">
@@ -8277,7 +9162,7 @@
         <v>24</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="N24" s="10" t="s">
@@ -8298,7 +9183,10 @@
       <c r="S24" s="10">
         <v>2</v>
       </c>
-      <c r="T24" s="10"/>
+      <c r="T24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
@@ -8335,7 +9223,7 @@
         <v>223</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="N25" s="10" t="s">
@@ -8356,6 +9244,10 @@
       <c r="S25" s="10">
         <v>2</v>
       </c>
+      <c r="T25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26">
@@ -8383,7 +9275,7 @@
         <v>22</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N26" s="10" t="s">
@@ -8404,7 +9296,10 @@
       <c r="S26" s="10">
         <v>2</v>
       </c>
-      <c r="T26" s="10"/>
+      <c r="T26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27">
@@ -8432,7 +9327,7 @@
         <v>31</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="N27" s="10" t="s">
@@ -8453,7 +9348,10 @@
       <c r="S27" s="10">
         <v>2</v>
       </c>
-      <c r="T27" s="10"/>
+      <c r="T27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28">
@@ -8481,7 +9379,7 @@
         <v>30</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="N28" s="10" t="s">
@@ -8502,6 +9400,10 @@
       <c r="S28" s="10">
         <v>2</v>
       </c>
+      <c r="T28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29">
@@ -8529,7 +9431,7 @@
         <v>29</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -8550,7 +9452,10 @@
       <c r="S29" s="10">
         <v>2</v>
       </c>
-      <c r="T29" s="10"/>
+      <c r="T29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30">
@@ -8578,7 +9483,7 @@
         <v>28</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N30" s="10" t="s">
@@ -8599,7 +9504,10 @@
       <c r="S30" s="10">
         <v>2</v>
       </c>
-      <c r="T30" s="10"/>
+      <c r="T30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-E</v>
+      </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31">
@@ -8627,7 +9535,7 @@
         <v>27</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -8648,6 +9556,10 @@
       <c r="S31" s="10">
         <v>2</v>
       </c>
+      <c r="T31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-E</v>
+      </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32">
@@ -8675,7 +9587,7 @@
         <v>33</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="N32" s="10" t="s">
@@ -8696,6 +9608,10 @@
       <c r="S32" s="10">
         <v>2</v>
       </c>
+      <c r="T32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-E</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33">
@@ -8723,7 +9639,7 @@
         <v>34</v>
       </c>
       <c r="M33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -8744,6 +9660,10 @@
       <c r="S33" s="1">
         <v>3</v>
       </c>
+      <c r="T33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-E</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34">
@@ -8771,7 +9691,7 @@
         <v>32</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="N34" s="10" t="s">
@@ -8792,7 +9712,10 @@
       <c r="S34" s="1">
         <v>3</v>
       </c>
-      <c r="T34" s="10"/>
+      <c r="T34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-E</v>
+      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35">
@@ -8820,7 +9743,7 @@
         <v>14</v>
       </c>
       <c r="M35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="N35" s="10" t="s">
@@ -8841,7 +9764,10 @@
       <c r="S35" s="1">
         <v>3</v>
       </c>
-      <c r="T35" s="10"/>
+      <c r="T35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-E</v>
+      </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36">
@@ -8869,7 +9795,7 @@
         <v>13</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="N36" s="10" t="s">
@@ -8890,7 +9816,10 @@
       <c r="S36" s="1">
         <v>3</v>
       </c>
-      <c r="T36" s="10"/>
+      <c r="T36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-B</v>
+      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37">
@@ -8918,7 +9847,7 @@
         <v>12</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="N37" s="10" t="s">
@@ -8939,7 +9868,10 @@
       <c r="S37" s="1">
         <v>3</v>
       </c>
-      <c r="T37" s="10"/>
+      <c r="T37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-B</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38">
@@ -8967,7 +9899,7 @@
         <v>18</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="N38" s="10" t="s">
@@ -8988,6 +9920,10 @@
       <c r="S38" s="1">
         <v>3</v>
       </c>
+      <c r="T38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CI-B</v>
+      </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39">
@@ -9024,7 +9960,7 @@
         <v>224</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -9045,6 +9981,10 @@
       <c r="S39" s="10">
         <v>3</v>
       </c>
+      <c r="T39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40">
@@ -9072,7 +10012,7 @@
         <v>16</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="N40" s="10" t="s">
@@ -9093,7 +10033,10 @@
       <c r="S40" s="1">
         <v>3</v>
       </c>
-      <c r="T40" s="10"/>
+      <c r="T40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41">
@@ -9121,7 +10064,7 @@
         <v>15</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -9142,7 +10085,10 @@
       <c r="S41" s="1">
         <v>3</v>
       </c>
-      <c r="T41" s="10"/>
+      <c r="T41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42">
@@ -9170,7 +10116,7 @@
         <v>198</v>
       </c>
       <c r="M42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="N42" s="10" t="s">
@@ -9191,7 +10137,10 @@
       <c r="S42" s="1">
         <v>3</v>
       </c>
-      <c r="T42" s="10"/>
+      <c r="T42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-E</v>
+      </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43">
@@ -9219,7 +10168,7 @@
         <v>199</v>
       </c>
       <c r="M43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -9240,7 +10189,10 @@
       <c r="S43" s="10">
         <v>3</v>
       </c>
-      <c r="T43" s="10"/>
+      <c r="T43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-E</v>
+      </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44">
@@ -9268,7 +10220,7 @@
         <v>21</v>
       </c>
       <c r="M44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="N44" s="10" t="s">
@@ -9289,6 +10241,10 @@
       <c r="S44" s="10">
         <v>3</v>
       </c>
+      <c r="T44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-E</v>
+      </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45">
@@ -9316,7 +10272,7 @@
         <v>20</v>
       </c>
       <c r="M45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="N45" s="10" t="s">
@@ -9337,6 +10293,10 @@
       <c r="S45" s="1">
         <v>3</v>
       </c>
+      <c r="T45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FB-B</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46">
@@ -9364,7 +10324,7 @@
         <v>19</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="N46" s="10" t="s">
@@ -9385,7 +10345,10 @@
       <c r="S46" s="10">
         <v>3</v>
       </c>
-      <c r="T46" s="10"/>
+      <c r="T46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47">
@@ -9413,7 +10376,7 @@
         <v>50</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="N47" s="10" t="s">
@@ -9434,6 +10397,10 @@
       <c r="S47" s="10">
         <v>3</v>
       </c>
+      <c r="T47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48">
@@ -9461,7 +10428,7 @@
         <v>51</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="N48" s="10" t="s">
@@ -9482,6 +10449,10 @@
       <c r="S48" s="10">
         <v>3</v>
       </c>
+      <c r="T48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49">
@@ -9518,7 +10489,7 @@
         <v>226</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="N49" s="10" t="s">
@@ -9539,7 +10510,10 @@
       <c r="S49" s="10">
         <v>3</v>
       </c>
-      <c r="T49" s="10"/>
+      <c r="T49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-E</v>
+      </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50">
@@ -9567,7 +10541,7 @@
         <v>53</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="N50" s="10" t="s">
@@ -9588,7 +10562,10 @@
       <c r="S50" s="10">
         <v>3</v>
       </c>
-      <c r="T50" s="10"/>
+      <c r="T50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PG-B</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51">
@@ -9616,7 +10593,7 @@
         <v>54</v>
       </c>
       <c r="M51" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="N51" s="10" t="s">
@@ -9637,7 +10614,10 @@
       <c r="S51" s="10">
         <v>3</v>
       </c>
-      <c r="T51" s="10"/>
+      <c r="T51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52">
@@ -9665,7 +10645,7 @@
         <v>55</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="N52" s="10" t="s">
@@ -9686,6 +10666,10 @@
       <c r="S52" s="10">
         <v>3</v>
       </c>
+      <c r="T52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53">
@@ -9713,7 +10697,7 @@
         <v>56</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N53" s="10" t="s">
@@ -9734,7 +10718,10 @@
       <c r="S53" s="10">
         <v>3</v>
       </c>
-      <c r="T53" s="10"/>
+      <c r="T53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-E</v>
+      </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54">
@@ -9762,7 +10749,7 @@
         <v>190</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="N54" s="10" t="s">
@@ -9783,6 +10770,10 @@
       <c r="S54" s="10">
         <v>3</v>
       </c>
+      <c r="T54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-E</v>
+      </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55">
@@ -9810,7 +10801,7 @@
         <v>191</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="N55" s="10" t="s">
@@ -9831,7 +10822,10 @@
       <c r="S55" s="10">
         <v>3</v>
       </c>
-      <c r="T55" s="10"/>
+      <c r="T55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-B</v>
+      </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56">
@@ -9859,7 +10853,7 @@
         <v>192</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="N56" s="10" t="s">
@@ -9880,7 +10874,10 @@
       <c r="S56" s="10">
         <v>3</v>
       </c>
-      <c r="T56" s="10"/>
+      <c r="T56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WB-E</v>
+      </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57">
@@ -13222,8 +14219,14 @@
     <sortCondition ref="S2:S57"/>
     <sortCondition ref="R2:R57"/>
   </sortState>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="N2:O2" sheet="Sample Selection for Extraction"/>
+    </dataRefs>
+  </dataConsolidate>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/DNR Geoduck Organization.xlsx
+++ b/Data/DNR Geoduck Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25340" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="16080" yWindow="0" windowWidth="9340" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Info" sheetId="1" r:id="rId1"/>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F128" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
